--- a/tables/2021-10/regional_table_Oct.xlsx
+++ b/tables/2021-10/regional_table_Oct.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Report from 2021-09-27 to 2021-" r:id="rId3" sheetId="1"/>
+    <sheet name="Report from 2021-10-04 to 2021-" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Sequenced samples</t>
   </si>
@@ -89,52 +89,55 @@
     <t>Region 6</t>
   </si>
   <si>
-    <t>21.5</t>
-  </si>
-  <si>
     <t>22.1</t>
   </si>
   <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>34.1</t>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>34.6</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>100.0 (99.9-100.0)</t>
-  </si>
-  <si>
-    <t>99.9 (99.7-100.0)</t>
-  </si>
-  <si>
-    <t>100.0 (99.7-100.0)</t>
+    <t>99.9 (99.9-100.0)</t>
+  </si>
+  <si>
+    <t>99.9 (99.6-100.0)</t>
+  </si>
+  <si>
+    <t>100.0 (99.6-100.0)</t>
+  </si>
+  <si>
+    <t>99.9 (99.5-100.0)</t>
   </si>
   <si>
     <t>100.0 (99.8-100.0)</t>
   </si>
   <si>
-    <t>100.0 (99.6-100.0)</t>
-  </si>
-  <si>
-    <t>99.8 (99.1-100.0)</t>
+    <t>99.8 (99.0-100.0)</t>
   </si>
   <si>
     <t>&lt;0.1</t>
   </si>
   <si>
-    <t>0.2 (0.0-0.9)</t>
+    <t>0.1 (0.0-0.5)</t>
+  </si>
+  <si>
+    <t>0.2 (0.0-1.0)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>8757.0</v>
+        <v>7290.0</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -271,7 +274,7 @@
         <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>8755.0</v>
+        <v>7286.0</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
@@ -283,10 +286,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -306,7 +309,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>1612.0</v>
+        <v>1382.0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -330,7 +333,7 @@
         <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>1611.0</v>
+        <v>1381.0</v>
       </c>
       <c r="K3" t="s">
         <v>34</v>
@@ -365,7 +368,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>1234.0</v>
+        <v>1009.0</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -389,7 +392,7 @@
         <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>1234.0</v>
+        <v>1009.0</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -424,7 +427,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>1672.0</v>
+        <v>1365.0</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -448,7 +451,7 @@
         <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>1672.0</v>
+        <v>1363.0</v>
       </c>
       <c r="K5" t="s">
         <v>36</v>
@@ -460,10 +463,10 @@
         <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P5" t="n">
         <v>0.0</v>
@@ -483,7 +486,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>1027.0</v>
+        <v>865.0</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -507,10 +510,10 @@
         <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>1027.0</v>
+        <v>865.0</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
@@ -542,7 +545,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="n">
-        <v>2524.0</v>
+        <v>2078.0</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -566,10 +569,10 @@
         <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>2524.0</v>
+        <v>2078.0</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
@@ -601,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="n">
-        <v>642.0</v>
+        <v>549.0</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -625,7 +628,7 @@
         <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>641.0</v>
+        <v>548.0</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -652,7 +655,7 @@
         <v>1.0</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
